--- a/biology/Botanique/Forêt_nationale_de_Gila/Forêt_nationale_de_Gila.xlsx
+++ b/biology/Botanique/Forêt_nationale_de_Gila/Forêt_nationale_de_Gila.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAt_nationale_de_Gila</t>
+          <t>Forêt_nationale_de_Gila</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La forêt nationale de Gila est une forêt du Nouveau-Mexique au sud-ouest des États-Unis.
-D'une superficie totale de 10 969,65 km2, elle a été classée en 1905[1].
+D'une superficie totale de 10 969,65 km2, elle a été classée en 1905.
 Elle abrite notamment le Cosmic Campground, un terrain de camping reconnu pour la qualité de son ciel nocturne, ainsi qu'un ensemble de cabanes, les Bearwallow Mountain Lookout Cabins and Shed, construites en 1923.
 </t>
         </is>
